--- a/PRO1/step_1/scenarios_2.xlsx
+++ b/PRO1/step_1/scenarios_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jona/Documents/Uni/Master/Erasmus/Pratical_Optimization_Of_Energy_Networks/PracticalOptimizationOfEnergyNetworks/PRO1/step_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79734EBF-E2E9-2848-B170-3138680444D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A77522-5365-4242-BF26-0D96F3E0431D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{3E0604F4-7B4B-8E43-8415-DA7D49A9717B}"/>
   </bookViews>
@@ -220,7 +220,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +242,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,21 +287,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -304,6 +295,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5503DF-99CB-F848-A569-731038D1779E}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="49" workbookViewId="0">
+      <selection activeCell="I5" activeCellId="3" sqref="C5 F5 G5 I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,796 +678,836 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="7"/>
+      <c r="I2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="7"/>
+      <c r="I4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="8" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="8" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="7"/>
+      <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="7"/>
+      <c r="H7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="7"/>
+      <c r="H8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="7"/>
+      <c r="H10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="7"/>
+      <c r="H12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="7"/>
+      <c r="G14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="7"/>
+      <c r="G16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="7"/>
+      <c r="G18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="7"/>
+      <c r="C20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="8" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" s="7"/>
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="8" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="8" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="8" t="s">
+      <c r="H23" s="8"/>
+      <c r="I23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="8" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="8" t="s">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="8" t="s">
+      <c r="H25" s="8"/>
+      <c r="I25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="7"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" s="7"/>
+      <c r="B26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J27" s="7"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="7"/>
+      <c r="B28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J29" s="7"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J30" s="7"/>
+      <c r="B30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J31" s="7"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="J8:J9"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
@@ -1478,58 +1524,18 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="J8:J9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J28:J29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
